--- a/eQuim-PermisosGCI/bin/entrada/CltaGCI_1_Usuarios.xlsx
+++ b/eQuim-PermisosGCI/bin/entrada/CltaGCI_1_Usuarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AED2-RepoMarce2021\eQuim-PermisosGCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio-eQuim\eQuim-PermisosGCI\src\entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58289459-A07F-4834-A916-91B012F40CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E1183-9864-4677-A7FB-FFDE4B0D0F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63AF1A2B-8E60-45AF-B24E-FB5A1C02D92D}"/>
   </bookViews>
@@ -1209,7 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A467C63F-72D3-4C26-9983-35841152A0DA}">
   <dimension ref="A1:E667"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A656" workbookViewId="0">
+      <selection activeCell="A667" sqref="A667"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
